--- a/apps/load_data/2016/08/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/08/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0816\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY0816\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF68BE-0490-4D4E-916C-6C7AEE2823D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230FE643-2E71-4898-B52C-32C6C894FD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,15 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$242</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$239</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9778" uniqueCount="2395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9766" uniqueCount="2394">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6440,9 +6441,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047     93844     938441081    296920    2969201082    159880    1598802001         0     386012006     41400     414002026    188258    1882582028      5000      41642086      2500      25002180       250       2502182       100       100</t>
@@ -8066,8 +8064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240:XFD242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC245" sqref="AC245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44965,12 +44963,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -45035,10 +45028,10 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2140</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2141</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>114</v>
@@ -45047,7 +45040,7 @@
         <v>102</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -45068,13 +45061,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2144</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45109,13 +45102,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2147</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2148</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45147,12 +45140,7 @@
       <c r="AB211" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45199,7 +45187,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="BB211" s="1">
         <v>8</v>
@@ -45217,10 +45205,10 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2150</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2151</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>114</v>
@@ -45232,13 +45220,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BS211" s="3">
         <v>36949</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -45262,13 +45250,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1789</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45303,13 +45291,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45341,12 +45329,7 @@
       <c r="AB212" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -45393,7 +45376,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BB212" s="1">
         <v>8</v>
@@ -45414,10 +45397,10 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>114</v>
@@ -45429,13 +45412,13 @@
         <v>99</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BS212" s="3">
         <v>36825</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -45459,13 +45442,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -45500,13 +45483,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2168</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2169</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -45535,12 +45518,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -45590,7 +45568,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BB213" s="1">
         <v>8</v>
@@ -45608,7 +45586,7 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>182</v>
@@ -45620,7 +45598,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -45638,13 +45616,13 @@
         <v>98</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -45679,13 +45657,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2177</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -45714,12 +45692,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -45769,7 +45742,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BB214" s="1">
         <v>8</v>
@@ -45787,7 +45760,7 @@
         <v>111</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>800</v>
@@ -45799,7 +45772,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -45820,10 +45793,10 @@
         <v>637</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45858,13 +45831,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2184</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2185</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45893,12 +45866,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45948,7 +45916,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="BB215" s="1">
         <v>8</v>
@@ -45966,10 +45934,10 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2188</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>114</v>
@@ -45978,7 +45946,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -45996,13 +45964,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="CD215" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46037,13 +46005,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46078,12 +46046,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46130,7 +46093,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BB216" s="1">
         <v>8</v>
@@ -46139,7 +46102,7 @@
         <v>16</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>109</v>
@@ -46151,10 +46114,10 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2197</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2198</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>114</v>
@@ -46166,13 +46129,13 @@
         <v>115</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="BS216" s="3">
         <v>35243</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -46190,13 +46153,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46231,13 +46194,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2206</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46266,12 +46229,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -46321,7 +46279,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BB217" s="1">
         <v>8</v>
@@ -46339,10 +46297,10 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2208</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2209</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>114</v>
@@ -46351,7 +46309,7 @@
         <v>102</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -46369,13 +46327,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2211</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2212</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46410,13 +46368,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2216</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -46445,12 +46403,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -46500,7 +46453,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BB218" s="1">
         <v>8</v>
@@ -46518,10 +46471,10 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2219</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>114</v>
@@ -46533,7 +46486,7 @@
         <v>155</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -46551,13 +46504,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2222</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2223</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46592,13 +46545,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2226</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -46627,12 +46580,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -46679,7 +46627,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BB219" s="1">
         <v>8</v>
@@ -46688,7 +46636,7 @@
         <v>16</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>109</v>
@@ -46700,10 +46648,10 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2230</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>114</v>
@@ -46715,13 +46663,13 @@
         <v>209</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BS219" s="3">
         <v>34307</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -46739,13 +46687,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>425</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46780,13 +46728,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2236</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2237</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46818,12 +46766,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46873,7 +46816,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BB220" s="1">
         <v>8</v>
@@ -46894,7 +46837,7 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>182</v>
@@ -46906,7 +46849,7 @@
         <v>102</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -46927,13 +46870,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46968,13 +46911,13 @@
         <v>93</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47003,12 +46946,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2139</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>103</v>
       </c>
@@ -47055,7 +46993,7 @@
         <v>98</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BB221" s="1">
         <v>8</v>
@@ -47076,10 +47014,10 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
@@ -47091,13 +47029,13 @@
         <v>115</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BS221" s="3">
         <v>35950</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -47115,13 +47053,13 @@
         <v>98</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1624</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47156,13 +47094,13 @@
         <v>144</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2256</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47213,7 +47151,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47258,13 +47196,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -47288,10 +47226,10 @@
         <v>2041</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2260</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47326,13 +47264,13 @@
         <v>144</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2264</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -47386,7 +47324,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -47431,13 +47369,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -47458,13 +47396,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -47499,13 +47437,13 @@
         <v>144</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2272</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -47559,7 +47497,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -47604,13 +47542,13 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
@@ -47631,13 +47569,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2276</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="225" spans="1:84" x14ac:dyDescent="0.25">
@@ -47672,13 +47610,13 @@
         <v>144</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2280</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -47774,13 +47712,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -47801,10 +47739,10 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="CE225" s="1" t="s">
         <v>199</v>
@@ -47842,13 +47780,13 @@
         <v>144</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47902,7 +47840,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47947,13 +47885,13 @@
         <v>111</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>118</v>
@@ -47977,13 +47915,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="227" spans="1:84" x14ac:dyDescent="0.25">
@@ -48018,13 +47956,13 @@
         <v>144</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -48075,7 +48013,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="AO227" s="1">
         <v>0</v>
@@ -48120,13 +48058,13 @@
         <v>111</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>118</v>
@@ -48147,13 +48085,13 @@
         <v>98</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2212</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="228" spans="1:84" x14ac:dyDescent="0.25">
@@ -48188,10 +48126,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2300</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48275,7 +48213,7 @@
         <v>379</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="229" spans="1:84" x14ac:dyDescent="0.25">
@@ -48310,10 +48248,10 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48394,7 +48332,7 @@
         <v>379</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="230" spans="1:84" x14ac:dyDescent="0.25">
@@ -48429,13 +48367,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2305</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -48516,7 +48454,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BB230" s="1">
         <v>8</v>
@@ -48534,10 +48472,10 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2308</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>114</v>
@@ -48549,7 +48487,7 @@
         <v>155</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -48567,13 +48505,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>425</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="231" spans="1:84" x14ac:dyDescent="0.25">
@@ -48608,13 +48546,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -48692,7 +48630,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BB231" s="1">
         <v>8</v>
@@ -48710,10 +48648,10 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>114</v>
@@ -48725,13 +48663,13 @@
         <v>209</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BS231" s="3">
         <v>36099</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -48749,13 +48687,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2321</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2322</v>
       </c>
     </row>
     <row r="232" spans="1:84" x14ac:dyDescent="0.25">
@@ -48790,13 +48728,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48874,7 +48812,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BB232" s="1">
         <v>8</v>
@@ -48892,7 +48830,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1688</v>
@@ -48907,13 +48845,13 @@
         <v>99</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BS232" s="3">
         <v>37735</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -48931,13 +48869,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="233" spans="1:84" x14ac:dyDescent="0.25">
@@ -48972,13 +48910,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49059,7 +48997,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BB233" s="1">
         <v>8</v>
@@ -49077,7 +49015,7 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1679</v>
@@ -49089,7 +49027,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -49107,13 +49045,13 @@
         <v>98</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>802</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="234" spans="1:84" x14ac:dyDescent="0.25">
@@ -49148,13 +49086,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2343</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49190,7 +49128,7 @@
         <v>103</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>1728</v>
@@ -49235,7 +49173,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BB234" s="1">
         <v>8</v>
@@ -49253,7 +49191,7 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>114</v>
@@ -49262,7 +49200,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -49283,10 +49221,10 @@
         <v>1439</v>
       </c>
       <c r="CD234" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="CE234" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2349</v>
       </c>
     </row>
     <row r="235" spans="1:84" x14ac:dyDescent="0.25">
@@ -49321,13 +49259,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -49408,7 +49346,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BB235" s="1">
         <v>8</v>
@@ -49426,7 +49364,7 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>114</v>
@@ -49435,7 +49373,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -49459,7 +49397,7 @@
         <v>868</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="236" spans="1:84" x14ac:dyDescent="0.25">
@@ -49494,13 +49432,13 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -49539,7 +49477,7 @@
         <v>614</v>
       </c>
       <c r="AH236" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="AI236" s="1" t="s">
         <v>98</v>
@@ -49581,7 +49519,7 @@
         <v>98</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BB236" s="1">
         <v>8</v>
@@ -49599,10 +49537,10 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
@@ -49611,7 +49549,7 @@
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -49629,13 +49567,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="CD236" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="CD236" s="1" t="s">
+      <c r="CE236" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="CE236" s="1" t="s">
-        <v>2367</v>
       </c>
     </row>
     <row r="237" spans="1:84" x14ac:dyDescent="0.25">
@@ -49670,13 +49608,13 @@
         <v>144</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2370</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -49718,7 +49656,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -49757,13 +49695,13 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -49781,13 +49719,13 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>304</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="238" spans="1:84" x14ac:dyDescent="0.25">
@@ -49822,16 +49760,16 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="M238" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="M238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2379</v>
       </c>
       <c r="Q238" s="3">
         <v>23125</v>
@@ -49864,7 +49802,7 @@
         <v>42247</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>103</v>
@@ -49915,7 +49853,7 @@
         <v>1419</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>114</v>
@@ -49927,13 +49865,13 @@
         <v>209</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BS238" s="3">
         <v>36580</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>118</v>
@@ -49954,7 +49892,7 @@
         <v>98</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>294</v>
@@ -49998,10 +49936,10 @@
         <v>254</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>256</v>
@@ -50031,7 +49969,7 @@
         <v>42582</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>103</v>
@@ -50082,10 +50020,10 @@
         <v>257</v>
       </c>
       <c r="BH239" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="BI239" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="BI239" s="1" t="s">
-        <v>2388</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>114</v>
@@ -50174,7 +50112,7 @@
         <v>97</v>
       </c>
       <c r="P240" s="4" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="Q240" s="5">
         <v>24576</v>
@@ -50278,7 +50216,7 @@
         <v>111</v>
       </c>
       <c r="BH240" s="4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BI240" s="4"/>
       <c r="BJ240" s="4"/>
@@ -50382,7 +50320,7 @@
         <v>97</v>
       </c>
       <c r="P241" s="4" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="Q241" s="5">
         <v>23013</v>
@@ -50488,7 +50426,7 @@
         <v>111</v>
       </c>
       <c r="BH241" s="4" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BI241" s="4"/>
       <c r="BJ241" s="4"/>
@@ -50588,7 +50526,7 @@
         <v>97</v>
       </c>
       <c r="P242" s="4" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="Q242" s="5">
         <v>23289</v>
@@ -50692,7 +50630,7 @@
         <v>111</v>
       </c>
       <c r="BH242" s="4" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BI242" s="4"/>
       <c r="BJ242" s="4"/>
@@ -50741,6 +50679,7 @@
       <c r="CF242" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF242" xr:uid="{9648A959-26CB-4BA1-AF4F-CB782DB7D42B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>